--- a/biology/Zoologie/Grayia/Grayia.xlsx
+++ b/biology/Zoologie/Grayia/Grayia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grayia est un genre de serpents, le seul de la sous-famille des Grayiinae, appartenant à la famille des Colubridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Grayia est parfois classé dans la sous-famille des Lamprophiinae.
 Il existe également un genre végétal Grayia, monotypique, concernant l'espèce Grayia spinosa, une plante de la famille des Amaranthaceae.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent en Afrique.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 août 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 août 2011) :
 Grayia caesar (Günther, 1863)
 Grayia ornata (Bocage, 1866)
 Grayia smithii  (Leach, 1818)
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).
 Meirte, 1992 : Clés de détermination des serpents d'Afrique. Museum Royal d'Afrique Centrale, Tervuren Belgique Annual Series Octavo Science Zoologique, vol. 267, p. 1-152</t>
